--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -1,76 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\dist-heat\BFoHfC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\OneDrive\Pós-graduação\3 - Projetos\projeto EPS\Variáveis feitas\Variáveis Energy Innovation\InputData\dist-heat\BFoHfC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F4E1CCB-84F7-45BD-B8EA-179906D1A64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoHfC" sheetId="4" r:id="rId3"/>
+    <sheet name="BFoHfC" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>International Energy Agency</t>
-  </si>
-  <si>
-    <t>CHP/DHC Country Scorecard: United States</t>
-  </si>
-  <si>
-    <t>http://www.iea.org/publications/insights/insightpublications/US_CountryScorecard_FINAL.pdf</t>
-  </si>
-  <si>
-    <t>System Type</t>
-  </si>
-  <si>
-    <t>Downtown</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Total Capacity (GWth)</t>
-  </si>
-  <si>
-    <t>Number of Systems</t>
-  </si>
-  <si>
-    <t>Number of Systems with CHP</t>
-  </si>
-  <si>
-    <t>Pages 13-14</t>
-  </si>
-  <si>
-    <t>Capacity-weighted average fraction of systems with CHP</t>
-  </si>
-  <si>
-    <t>Note that this does not include all district heat systems (the IEA document indicates there</t>
-  </si>
-  <si>
-    <t>are 837 systems in the U.S. on page 14), but it includes all the systems for which they provide a</t>
-  </si>
-  <si>
-    <t>breakdown of CHP vs. non-CHP.</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -89,9 +54,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>It does not matter if some of these fuel types are not used</t>
   </si>
   <si>
@@ -123,16 +85,22 @@
   </si>
   <si>
     <t>Fraction of Heat from CHP (dimensionless)</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Note on the Brazilian model:</t>
+  </si>
+  <si>
+    <t>District heat variables are not applicable to Brazil, given its climatic conditions. Thus, we set it to zero.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,29 +116,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF3333FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,34 +140,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -231,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -306,6 +252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -341,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,84 +496,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -603,1708 +566,1263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>106</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>375</v>
-      </c>
-      <c r="C3">
-        <v>187</v>
-      </c>
-      <c r="D3">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f>((C2/B2)*D2+(C3/B3)*D3)/SUM(D2:D3)</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="7">
+    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="2">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="2">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="2">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="2">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="2">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="2">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="2">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="2">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="2">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="2">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="7">
+      <c r="X1" s="2">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="Z1" s="2">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AB1" s="2">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="7">
+      <c r="AD1" s="2">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="7">
+      <c r="AF1" s="2">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="7">
+      <c r="AH1" s="2">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="7">
+      <c r="AJ1" s="2">
         <v>2049</v>
       </c>
       <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <f>Data!$A$6</f>
-        <v>0.50623017079495658</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
